--- a/Excel/Marcar_los_que_no_estan.xlsx
+++ b/Excel/Marcar_los_que_no_estan.xlsx
@@ -1,38 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Blog Jordi\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIANPIER\Desktop\Apuntes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3009B65-35E1-44F8-828D-F734D32CE552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Originales" sheetId="2" r:id="rId1"/>
     <sheet name="Formato condicional" sheetId="3" r:id="rId2"/>
     <sheet name="Marcar registros que no están" sheetId="1" r:id="rId3"/>
-    <sheet name="EsError" sheetId="4" r:id="rId4"/>
+    <sheet name="Pruebas" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Erin Haegens</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="46">
   <si>
     <t>01</t>
   </si>
@@ -189,13 +201,25 @@
   </si>
   <si>
     <t>Asp.net</t>
+  </si>
+  <si>
+    <t>COINCIDIR</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>FUNCION</t>
+  </si>
+  <si>
+    <t>COINCIDIR()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +255,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +276,20 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -253,17 +297,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,37 +325,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -318,6 +378,53 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -348,13 +455,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -373,20 +473,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,7 +504,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Llamada con línea 2 (borde y barra de énfasis) 1"/>
+        <xdr:cNvPr id="2" name="Llamada con línea 2 (borde y barra de énfasis) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -481,7 +573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Llamada con línea 2 (borde y barra de énfasis) 2"/>
+        <xdr:cNvPr id="3" name="Llamada con línea 2 (borde y barra de énfasis) 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -533,89 +631,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla15" displayName="Tabla15" ref="B3:C16" totalsRowShown="0" dataDxfId="22">
-  <autoFilter ref="B3:C16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla15" displayName="Tabla15" ref="B3:C16" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="B3:C16" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Código Libro" dataDxfId="21"/>
-    <tableColumn id="2" name="Libro" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código Libro" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Libro" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla26" displayName="Tabla26" ref="F3:G21" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="F3:G21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla26" displayName="Tabla26" ref="F3:G21" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="F3:G21" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Código Libro" dataDxfId="18"/>
-    <tableColumn id="2" name="Libro" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Código Libro" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Libro" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla154" displayName="Tabla154" ref="B3:C16" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="B3:C16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla154" displayName="Tabla154" ref="B3:C16" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="B3:C16" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Código Libro" dataDxfId="14"/>
-    <tableColumn id="2" name="Libro" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Código Libro" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Libro" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla267" displayName="Tabla267" ref="F3:G21" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="F3:G21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla267" displayName="Tabla267" ref="F3:G21" totalsRowShown="0" dataDxfId="20">
+  <autoFilter ref="F3:G21" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="11"/>
+      <colorFilter dxfId="19"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Código Libro" dataDxfId="10"/>
-    <tableColumn id="2" name="Libro" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Código Libro" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Libro" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:C16" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="B3:C16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla1" displayName="Tabla1" ref="B3:C16" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="B3:C16" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Código Libro" dataDxfId="5"/>
-    <tableColumn id="2" name="Libro" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Código Libro" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Libro" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="F3:H21" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="F3:H21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla2" displayName="Tabla2" ref="F3:H21" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="F3:H21" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Código Libro" dataDxfId="2"/>
-    <tableColumn id="2" name="Libro" dataDxfId="1"/>
-    <tableColumn id="3" name="Está?" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Código Libro" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Libro" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Está?" dataDxfId="10">
       <calculatedColumnFormula>IF(NOT(ISNUMBER(MATCH(F4,$B$4:$B$16,0))),0,1)</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{237D8746-E1AE-4170-9A75-2C85707C08A5}" name="Tabla268" displayName="Tabla268" ref="H6:I25" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="H6:I25" xr:uid="{237D8746-E1AE-4170-9A75-2C85707C08A5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AA6E9609-6F7C-41E1-9F59-048A7F452964}" name="Código Libro" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A07EDEBA-6B43-431F-B249-365945C18622}" name="Libro" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -883,273 +992,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="9"/>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1164,13 +1267,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>5</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G21">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
       <formula>5</formula>
       <formula>10</formula>
     </cfRule>
@@ -1189,272 +1292,266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="9"/>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="6:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="6:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="6:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="6:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1463,7 +1560,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F21">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ISERROR(MATCH(F4,$B$4:$B$16,0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1480,340 +1577,340 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="9"/>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H21" si="0">IF(NOT(ISNUMBER(MATCH(F4,$B$4:$B$16,0))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="H4" s="3">
+        <f>IF(NOT(ISNUMBER(MATCH(F4,$B$4:$B$16,0))),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H21" si="0">IF(NOT(ISNUMBER(MATCH(F5,$B$4:$B$16,0))),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1822,13 +1919,8 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F21">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>H4=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>H3=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1846,20 +1938,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" t="e">
         <f>4/0</f>
         <v>#DIV/0!</v>
@@ -1868,8 +1963,14 @@
         <f>ISERROR(B2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <f>4/2</f>
         <v>2</v>
@@ -1879,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" t="e">
         <f ca="1">Sumar(4,7)</f>
         <v>#NAME?</v>
@@ -1888,8 +1989,14 @@
         <f ca="1">ISERROR(B4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <f>SUM(4,8)</f>
         <v>12</v>
@@ -1898,8 +2005,422 @@
         <f>ISERROR(B5)</f>
         <v>0</v>
       </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="e">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="7" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>1</v>
+      </c>
+      <c r="L8" t="e">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>3</v>
+      </c>
+      <c r="K10" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="e">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="7" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>1</v>
+      </c>
+      <c r="L11" t="e">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="e">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K12" s="7" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>1</v>
+      </c>
+      <c r="L12" t="e">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>4</v>
+      </c>
+      <c r="K13" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>5</v>
+      </c>
+      <c r="K14" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>6</v>
+      </c>
+      <c r="K15" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>7</v>
+      </c>
+      <c r="K16" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K17" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>9</v>
+      </c>
+      <c r="K18" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="e">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="7" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>1</v>
+      </c>
+      <c r="L19" t="e">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>10</v>
+      </c>
+      <c r="K20" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>11</v>
+      </c>
+      <c r="K21" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>12</v>
+      </c>
+      <c r="K22" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" t="e">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K23" s="7" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>1</v>
+      </c>
+      <c r="L23" t="e">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24">
+        <f>MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>13</v>
+      </c>
+      <c r="K24" t="b">
+        <f>ISERROR(MATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>_xlfn.XMATCH(Tabla268[[#This Row],[Código Libro]],Tabla15[Código Libro],0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" priority="5" operator="between">
+      <formula>5</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>5</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I25">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>5</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{DA5047F4-A2BA-4B3F-962E-0104E3422C82}">
+            <xm:f>ISERROR(MATCH(H7, Originales!$B$4:$B$16,0))</xm:f>
+            <x14:dxf/>
+          </x14:cfRule>
+          <xm:sqref>H7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>